--- a/2022 Data/Attendees/2018 Bath.xlsx
+++ b/2022 Data/Attendees/2018 Bath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/uaces/2022 Data/Attendees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67D0CF7-0D21-FB4A-BEF0-30CD75521FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F867496-C237-3A4A-B913-CFCBC9E245FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{75B0C651-0300-4037-AD33-26800DD847BD}"/>
   </bookViews>
@@ -2186,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF06912-2C0D-4B3E-ABD1-D4BF6B12A634}">
   <dimension ref="A1:I462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="81" workbookViewId="0">
       <selection activeCell="G15" sqref="G2:G15"/>
     </sheetView>
   </sheetViews>
